--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\OneDrive\Bureaublad\Project\Kamp\KampementKunja\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\KampementKunja\KampementKunja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5B8EC9E8-AECA-4526-A779-9D9CDEEA3D3D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54DD5163-63AD-4DEC-B9DE-0C4913D8F68D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{A6E5E93B-B35F-4E4B-A130-30A5E9571801}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
   <si>
     <t>Naam</t>
   </si>
@@ -40,6 +40,84 @@
   </si>
   <si>
     <t>Logboek ProjectAO</t>
+  </si>
+  <si>
+    <t>Jop</t>
+  </si>
+  <si>
+    <t>Mathijn</t>
+  </si>
+  <si>
+    <t>Sven</t>
+  </si>
+  <si>
+    <t>Brent</t>
+  </si>
+  <si>
+    <t>Zorgen dat inloggen werkt</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Boeking controller </t>
+  </si>
+  <si>
+    <t>MijnBoekingen controller</t>
+  </si>
+  <si>
+    <t>Layout boeking bevestigen</t>
+  </si>
+  <si>
+    <t>Layout email bevestigen</t>
+  </si>
+  <si>
+    <t>Lodge controller</t>
+  </si>
+  <si>
+    <t>Boeken layout</t>
+  </si>
+  <si>
+    <t>Registreren controller</t>
+  </si>
+  <si>
+    <t>Registereren layout</t>
+  </si>
+  <si>
+    <t>Manager layout</t>
+  </si>
+  <si>
+    <t>Lodge Layout</t>
+  </si>
+  <si>
+    <t>Manager controller</t>
+  </si>
+  <si>
+    <t>Boeken index layout</t>
+  </si>
+  <si>
+    <t>Navbar layout</t>
+  </si>
+  <si>
+    <t>Login pagina layout</t>
+  </si>
+  <si>
+    <t>Home pagina Layout</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Roles </t>
+  </si>
+  <si>
+    <t>Inloggen met facebook etc</t>
+  </si>
+  <si>
+    <t>Email bevestigen controller</t>
+  </si>
+  <si>
+    <t>Ja</t>
+  </si>
+  <si>
+    <t>Nee</t>
+  </si>
+  <si>
+    <t>Bijna</t>
   </si>
 </sst>
 </file>
@@ -71,12 +149,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="13">
@@ -265,7 +349,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -277,15 +361,48 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -603,7 +720,7 @@
   <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11:M13"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -615,7 +732,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="36" x14ac:dyDescent="0.55000000000000004">
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="10" t="s">
         <v>4</v>
       </c>
     </row>
@@ -635,736 +752,864 @@
       </c>
     </row>
     <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F4" s="5"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="7"/>
+      <c r="F4" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="16">
+        <v>43360</v>
+      </c>
+      <c r="H4" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="I4" s="18" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F5" s="8"/>
-      <c r="G5" s="4"/>
-      <c r="H5" s="4"/>
-      <c r="I5" s="9"/>
+      <c r="F5" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G5" s="13"/>
+      <c r="H5" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I5" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="8"/>
-      <c r="G6" s="4"/>
-      <c r="H6" s="4"/>
-      <c r="I6" s="9"/>
+      <c r="F6" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>43361</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="I6" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="8"/>
-      <c r="G7" s="4"/>
-      <c r="H7" s="4"/>
-      <c r="I7" s="9"/>
+      <c r="F7" s="19" t="s">
+        <v>5</v>
+      </c>
+      <c r="G7" s="14">
+        <v>43362</v>
+      </c>
+      <c r="H7" s="13" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="8"/>
-      <c r="G8" s="4"/>
-      <c r="H8" s="4"/>
-      <c r="I8" s="9"/>
+      <c r="F8" s="21" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="I8" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="8"/>
-      <c r="G9" s="4"/>
-      <c r="H9" s="4"/>
-      <c r="I9" s="9"/>
+      <c r="F9" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G9" s="13"/>
+      <c r="H9" s="13" t="s">
+        <v>14</v>
+      </c>
+      <c r="I9" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="8"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-      <c r="I10" s="9"/>
+      <c r="F10" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="8"/>
-      <c r="G11" s="4"/>
-      <c r="H11" s="4"/>
-      <c r="I11" s="9"/>
+      <c r="F11" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" s="14">
+        <v>43361</v>
+      </c>
+      <c r="H11" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="8"/>
-      <c r="G12" s="4"/>
-      <c r="H12" s="4"/>
-      <c r="I12" s="9"/>
+      <c r="F12" s="21" t="s">
+        <v>6</v>
+      </c>
+      <c r="G12" s="12">
+        <v>43361</v>
+      </c>
+      <c r="H12" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="I12" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="8"/>
-      <c r="G13" s="4"/>
-      <c r="H13" s="4"/>
-      <c r="I13" s="9"/>
+      <c r="F13" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="G13" s="13"/>
+      <c r="H13" s="13" t="s">
+        <v>18</v>
+      </c>
+      <c r="I13" s="20" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="8"/>
-      <c r="G14" s="4"/>
-      <c r="H14" s="4"/>
-      <c r="I14" s="9"/>
+      <c r="F14" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="I14" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="8"/>
-      <c r="G15" s="4"/>
-      <c r="H15" s="4"/>
-      <c r="I15" s="9"/>
+      <c r="F15" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="13"/>
+      <c r="H15" s="13" t="s">
+        <v>20</v>
+      </c>
+      <c r="I15" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="8"/>
-      <c r="G16" s="4"/>
-      <c r="H16" s="4"/>
-      <c r="I16" s="9"/>
+      <c r="F16" s="21" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="8"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-      <c r="I17" s="9"/>
+      <c r="F17" s="19" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="13"/>
+      <c r="H17" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="8"/>
-      <c r="G18" s="4"/>
-      <c r="H18" s="4"/>
-      <c r="I18" s="9"/>
+      <c r="F18" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G18" s="12">
+        <v>43363</v>
+      </c>
+      <c r="H18" s="11" t="s">
+        <v>23</v>
+      </c>
+      <c r="I18" s="22" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="8"/>
-      <c r="G19" s="4"/>
-      <c r="H19" s="4"/>
-      <c r="I19" s="9"/>
+      <c r="F19" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="14">
+        <v>43363</v>
+      </c>
+      <c r="H19" s="13" t="s">
+        <v>24</v>
+      </c>
+      <c r="I19" s="20" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="8"/>
-      <c r="G20" s="4"/>
-      <c r="H20" s="4"/>
-      <c r="I20" s="9"/>
+      <c r="F20" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="11"/>
+      <c r="H20" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="I20" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="8"/>
-      <c r="G21" s="4"/>
-      <c r="H21" s="4"/>
-      <c r="I21" s="9"/>
+      <c r="F21" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="G21" s="13"/>
+      <c r="H21" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="I21" s="20" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="8"/>
-      <c r="G22" s="4"/>
-      <c r="H22" s="4"/>
-      <c r="I22" s="9"/>
+      <c r="F22" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="G22" s="11"/>
+      <c r="H22" s="11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I22" s="22" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="8"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="4"/>
       <c r="H23" s="4"/>
-      <c r="I23" s="9"/>
+      <c r="I23" s="6"/>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="8"/>
+      <c r="F24" s="5"/>
       <c r="G24" s="4"/>
       <c r="H24" s="4"/>
-      <c r="I24" s="9"/>
+      <c r="I24" s="6"/>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F25" s="8"/>
+      <c r="F25" s="5"/>
       <c r="G25" s="4"/>
       <c r="H25" s="4"/>
-      <c r="I25" s="9"/>
+      <c r="I25" s="6"/>
     </row>
     <row r="26" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F26" s="8"/>
+      <c r="F26" s="5"/>
       <c r="G26" s="4"/>
       <c r="H26" s="4"/>
-      <c r="I26" s="9"/>
+      <c r="I26" s="6"/>
     </row>
     <row r="27" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F27" s="8"/>
+      <c r="F27" s="5"/>
       <c r="G27" s="4"/>
       <c r="H27" s="4"/>
-      <c r="I27" s="9"/>
+      <c r="I27" s="6"/>
     </row>
     <row r="28" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F28" s="8"/>
+      <c r="F28" s="5"/>
       <c r="G28" s="4"/>
       <c r="H28" s="4"/>
-      <c r="I28" s="9"/>
+      <c r="I28" s="6"/>
     </row>
     <row r="29" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F29" s="8"/>
+      <c r="F29" s="5"/>
       <c r="G29" s="4"/>
       <c r="H29" s="4"/>
-      <c r="I29" s="9"/>
+      <c r="I29" s="6"/>
     </row>
     <row r="30" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F30" s="8"/>
+      <c r="F30" s="5"/>
       <c r="G30" s="4"/>
       <c r="H30" s="4"/>
-      <c r="I30" s="9"/>
+      <c r="I30" s="6"/>
     </row>
     <row r="31" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F31" s="8"/>
+      <c r="F31" s="5"/>
       <c r="G31" s="4"/>
       <c r="H31" s="4"/>
-      <c r="I31" s="9"/>
+      <c r="I31" s="6"/>
     </row>
     <row r="32" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F32" s="8"/>
+      <c r="F32" s="5"/>
       <c r="G32" s="4"/>
       <c r="H32" s="4"/>
-      <c r="I32" s="9"/>
+      <c r="I32" s="6"/>
     </row>
     <row r="33" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F33" s="8"/>
+      <c r="F33" s="5"/>
       <c r="G33" s="4"/>
       <c r="H33" s="4"/>
-      <c r="I33" s="9"/>
+      <c r="I33" s="6"/>
     </row>
     <row r="34" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F34" s="8"/>
+      <c r="F34" s="5"/>
       <c r="G34" s="4"/>
       <c r="H34" s="4"/>
-      <c r="I34" s="9"/>
+      <c r="I34" s="6"/>
     </row>
     <row r="35" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F35" s="8"/>
+      <c r="F35" s="5"/>
       <c r="G35" s="4"/>
       <c r="H35" s="4"/>
-      <c r="I35" s="9"/>
+      <c r="I35" s="6"/>
     </row>
     <row r="36" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F36" s="8"/>
+      <c r="F36" s="5"/>
       <c r="G36" s="4"/>
       <c r="H36" s="4"/>
-      <c r="I36" s="9"/>
+      <c r="I36" s="6"/>
     </row>
     <row r="37" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F37" s="8"/>
+      <c r="F37" s="5"/>
       <c r="G37" s="4"/>
       <c r="H37" s="4"/>
-      <c r="I37" s="9"/>
+      <c r="I37" s="6"/>
     </row>
     <row r="38" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F38" s="8"/>
+      <c r="F38" s="5"/>
       <c r="G38" s="4"/>
       <c r="H38" s="4"/>
-      <c r="I38" s="9"/>
+      <c r="I38" s="6"/>
     </row>
     <row r="39" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F39" s="8"/>
+      <c r="F39" s="5"/>
       <c r="G39" s="4"/>
       <c r="H39" s="4"/>
-      <c r="I39" s="9"/>
+      <c r="I39" s="6"/>
     </row>
     <row r="40" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F40" s="8"/>
+      <c r="F40" s="5"/>
       <c r="G40" s="4"/>
       <c r="H40" s="4"/>
-      <c r="I40" s="9"/>
+      <c r="I40" s="6"/>
     </row>
     <row r="41" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F41" s="8"/>
+      <c r="F41" s="5"/>
       <c r="G41" s="4"/>
       <c r="H41" s="4"/>
-      <c r="I41" s="9"/>
+      <c r="I41" s="6"/>
     </row>
     <row r="42" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F42" s="8"/>
+      <c r="F42" s="5"/>
       <c r="G42" s="4"/>
       <c r="H42" s="4"/>
-      <c r="I42" s="9"/>
+      <c r="I42" s="6"/>
     </row>
     <row r="43" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F43" s="8"/>
+      <c r="F43" s="5"/>
       <c r="G43" s="4"/>
       <c r="H43" s="4"/>
-      <c r="I43" s="9"/>
+      <c r="I43" s="6"/>
     </row>
     <row r="44" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F44" s="8"/>
+      <c r="F44" s="5"/>
       <c r="G44" s="4"/>
       <c r="H44" s="4"/>
-      <c r="I44" s="9"/>
+      <c r="I44" s="6"/>
     </row>
     <row r="45" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F45" s="8"/>
+      <c r="F45" s="5"/>
       <c r="G45" s="4"/>
       <c r="H45" s="4"/>
-      <c r="I45" s="9"/>
+      <c r="I45" s="6"/>
     </row>
     <row r="46" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F46" s="8"/>
+      <c r="F46" s="5"/>
       <c r="G46" s="4"/>
       <c r="H46" s="4"/>
-      <c r="I46" s="9"/>
+      <c r="I46" s="6"/>
     </row>
     <row r="47" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F47" s="8"/>
+      <c r="F47" s="5"/>
       <c r="G47" s="4"/>
       <c r="H47" s="4"/>
-      <c r="I47" s="9"/>
+      <c r="I47" s="6"/>
     </row>
     <row r="48" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F48" s="8"/>
+      <c r="F48" s="5"/>
       <c r="G48" s="4"/>
       <c r="H48" s="4"/>
-      <c r="I48" s="9"/>
+      <c r="I48" s="6"/>
     </row>
     <row r="49" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F49" s="8"/>
+      <c r="F49" s="5"/>
       <c r="G49" s="4"/>
       <c r="H49" s="4"/>
-      <c r="I49" s="9"/>
+      <c r="I49" s="6"/>
     </row>
     <row r="50" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F50" s="8"/>
+      <c r="F50" s="5"/>
       <c r="G50" s="4"/>
       <c r="H50" s="4"/>
-      <c r="I50" s="9"/>
+      <c r="I50" s="6"/>
     </row>
     <row r="51" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F51" s="8"/>
+      <c r="F51" s="5"/>
       <c r="G51" s="4"/>
       <c r="H51" s="4"/>
-      <c r="I51" s="9"/>
+      <c r="I51" s="6"/>
     </row>
     <row r="52" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F52" s="8"/>
+      <c r="F52" s="5"/>
       <c r="G52" s="4"/>
       <c r="H52" s="4"/>
-      <c r="I52" s="9"/>
+      <c r="I52" s="6"/>
     </row>
     <row r="53" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F53" s="8"/>
+      <c r="F53" s="5"/>
       <c r="G53" s="4"/>
       <c r="H53" s="4"/>
-      <c r="I53" s="9"/>
+      <c r="I53" s="6"/>
     </row>
     <row r="54" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F54" s="8"/>
+      <c r="F54" s="5"/>
       <c r="G54" s="4"/>
       <c r="H54" s="4"/>
-      <c r="I54" s="9"/>
+      <c r="I54" s="6"/>
     </row>
     <row r="55" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F55" s="8"/>
+      <c r="F55" s="5"/>
       <c r="G55" s="4"/>
       <c r="H55" s="4"/>
-      <c r="I55" s="9"/>
+      <c r="I55" s="6"/>
     </row>
     <row r="56" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F56" s="8"/>
+      <c r="F56" s="5"/>
       <c r="G56" s="4"/>
       <c r="H56" s="4"/>
-      <c r="I56" s="9"/>
+      <c r="I56" s="6"/>
     </row>
     <row r="57" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F57" s="8"/>
+      <c r="F57" s="5"/>
       <c r="G57" s="4"/>
       <c r="H57" s="4"/>
-      <c r="I57" s="9"/>
+      <c r="I57" s="6"/>
     </row>
     <row r="58" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F58" s="8"/>
+      <c r="F58" s="5"/>
       <c r="G58" s="4"/>
       <c r="H58" s="4"/>
-      <c r="I58" s="9"/>
+      <c r="I58" s="6"/>
     </row>
     <row r="59" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F59" s="8"/>
+      <c r="F59" s="5"/>
       <c r="G59" s="4"/>
       <c r="H59" s="4"/>
-      <c r="I59" s="9"/>
+      <c r="I59" s="6"/>
     </row>
     <row r="60" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F60" s="8"/>
+      <c r="F60" s="5"/>
       <c r="G60" s="4"/>
       <c r="H60" s="4"/>
-      <c r="I60" s="9"/>
+      <c r="I60" s="6"/>
     </row>
     <row r="61" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F61" s="8"/>
+      <c r="F61" s="5"/>
       <c r="G61" s="4"/>
       <c r="H61" s="4"/>
-      <c r="I61" s="9"/>
+      <c r="I61" s="6"/>
     </row>
     <row r="62" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F62" s="8"/>
+      <c r="F62" s="5"/>
       <c r="G62" s="4"/>
       <c r="H62" s="4"/>
-      <c r="I62" s="9"/>
+      <c r="I62" s="6"/>
     </row>
     <row r="63" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F63" s="8"/>
+      <c r="F63" s="5"/>
       <c r="G63" s="4"/>
       <c r="H63" s="4"/>
-      <c r="I63" s="9"/>
+      <c r="I63" s="6"/>
     </row>
     <row r="64" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F64" s="8"/>
+      <c r="F64" s="5"/>
       <c r="G64" s="4"/>
       <c r="H64" s="4"/>
-      <c r="I64" s="9"/>
+      <c r="I64" s="6"/>
     </row>
     <row r="65" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F65" s="8"/>
+      <c r="F65" s="5"/>
       <c r="G65" s="4"/>
       <c r="H65" s="4"/>
-      <c r="I65" s="9"/>
+      <c r="I65" s="6"/>
     </row>
     <row r="66" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F66" s="8"/>
+      <c r="F66" s="5"/>
       <c r="G66" s="4"/>
       <c r="H66" s="4"/>
-      <c r="I66" s="9"/>
+      <c r="I66" s="6"/>
     </row>
     <row r="67" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F67" s="8"/>
+      <c r="F67" s="5"/>
       <c r="G67" s="4"/>
       <c r="H67" s="4"/>
-      <c r="I67" s="9"/>
+      <c r="I67" s="6"/>
     </row>
     <row r="68" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F68" s="8"/>
+      <c r="F68" s="5"/>
       <c r="G68" s="4"/>
       <c r="H68" s="4"/>
-      <c r="I68" s="9"/>
+      <c r="I68" s="6"/>
     </row>
     <row r="69" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F69" s="8"/>
+      <c r="F69" s="5"/>
       <c r="G69" s="4"/>
       <c r="H69" s="4"/>
-      <c r="I69" s="9"/>
+      <c r="I69" s="6"/>
     </row>
     <row r="70" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F70" s="8"/>
+      <c r="F70" s="5"/>
       <c r="G70" s="4"/>
       <c r="H70" s="4"/>
-      <c r="I70" s="9"/>
+      <c r="I70" s="6"/>
     </row>
     <row r="71" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F71" s="8"/>
+      <c r="F71" s="5"/>
       <c r="G71" s="4"/>
       <c r="H71" s="4"/>
-      <c r="I71" s="9"/>
+      <c r="I71" s="6"/>
     </row>
     <row r="72" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F72" s="8"/>
+      <c r="F72" s="5"/>
       <c r="G72" s="4"/>
       <c r="H72" s="4"/>
-      <c r="I72" s="9"/>
+      <c r="I72" s="6"/>
     </row>
     <row r="73" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F73" s="8"/>
+      <c r="F73" s="5"/>
       <c r="G73" s="4"/>
       <c r="H73" s="4"/>
-      <c r="I73" s="9"/>
+      <c r="I73" s="6"/>
     </row>
     <row r="74" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F74" s="8"/>
+      <c r="F74" s="5"/>
       <c r="G74" s="4"/>
       <c r="H74" s="4"/>
-      <c r="I74" s="9"/>
+      <c r="I74" s="6"/>
     </row>
     <row r="75" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F75" s="8"/>
+      <c r="F75" s="5"/>
       <c r="G75" s="4"/>
       <c r="H75" s="4"/>
-      <c r="I75" s="9"/>
+      <c r="I75" s="6"/>
     </row>
     <row r="76" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F76" s="8"/>
+      <c r="F76" s="5"/>
       <c r="G76" s="4"/>
       <c r="H76" s="4"/>
-      <c r="I76" s="9"/>
+      <c r="I76" s="6"/>
     </row>
     <row r="77" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F77" s="8"/>
+      <c r="F77" s="5"/>
       <c r="G77" s="4"/>
       <c r="H77" s="4"/>
-      <c r="I77" s="9"/>
+      <c r="I77" s="6"/>
     </row>
     <row r="78" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F78" s="8"/>
+      <c r="F78" s="5"/>
       <c r="G78" s="4"/>
       <c r="H78" s="4"/>
-      <c r="I78" s="9"/>
+      <c r="I78" s="6"/>
     </row>
     <row r="79" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F79" s="8"/>
+      <c r="F79" s="5"/>
       <c r="G79" s="4"/>
       <c r="H79" s="4"/>
-      <c r="I79" s="9"/>
+      <c r="I79" s="6"/>
     </row>
     <row r="80" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F80" s="8"/>
+      <c r="F80" s="5"/>
       <c r="G80" s="4"/>
       <c r="H80" s="4"/>
-      <c r="I80" s="9"/>
+      <c r="I80" s="6"/>
     </row>
     <row r="81" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F81" s="8"/>
+      <c r="F81" s="5"/>
       <c r="G81" s="4"/>
       <c r="H81" s="4"/>
-      <c r="I81" s="9"/>
+      <c r="I81" s="6"/>
     </row>
     <row r="82" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F82" s="8"/>
+      <c r="F82" s="5"/>
       <c r="G82" s="4"/>
       <c r="H82" s="4"/>
-      <c r="I82" s="9"/>
+      <c r="I82" s="6"/>
     </row>
     <row r="83" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F83" s="8"/>
+      <c r="F83" s="5"/>
       <c r="G83" s="4"/>
       <c r="H83" s="4"/>
-      <c r="I83" s="9"/>
+      <c r="I83" s="6"/>
     </row>
     <row r="84" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F84" s="8"/>
+      <c r="F84" s="5"/>
       <c r="G84" s="4"/>
       <c r="H84" s="4"/>
-      <c r="I84" s="9"/>
+      <c r="I84" s="6"/>
     </row>
     <row r="85" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F85" s="8"/>
+      <c r="F85" s="5"/>
       <c r="G85" s="4"/>
       <c r="H85" s="4"/>
-      <c r="I85" s="9"/>
+      <c r="I85" s="6"/>
     </row>
     <row r="86" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F86" s="8"/>
+      <c r="F86" s="5"/>
       <c r="G86" s="4"/>
       <c r="H86" s="4"/>
-      <c r="I86" s="9"/>
+      <c r="I86" s="6"/>
     </row>
     <row r="87" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F87" s="8"/>
+      <c r="F87" s="5"/>
       <c r="G87" s="4"/>
       <c r="H87" s="4"/>
-      <c r="I87" s="9"/>
+      <c r="I87" s="6"/>
     </row>
     <row r="88" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F88" s="8"/>
+      <c r="F88" s="5"/>
       <c r="G88" s="4"/>
       <c r="H88" s="4"/>
-      <c r="I88" s="9"/>
+      <c r="I88" s="6"/>
     </row>
     <row r="89" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F89" s="8"/>
+      <c r="F89" s="5"/>
       <c r="G89" s="4"/>
       <c r="H89" s="4"/>
-      <c r="I89" s="9"/>
+      <c r="I89" s="6"/>
     </row>
     <row r="90" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F90" s="8"/>
+      <c r="F90" s="5"/>
       <c r="G90" s="4"/>
       <c r="H90" s="4"/>
-      <c r="I90" s="9"/>
+      <c r="I90" s="6"/>
     </row>
     <row r="91" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F91" s="8"/>
+      <c r="F91" s="5"/>
       <c r="G91" s="4"/>
       <c r="H91" s="4"/>
-      <c r="I91" s="9"/>
+      <c r="I91" s="6"/>
     </row>
     <row r="92" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F92" s="8"/>
+      <c r="F92" s="5"/>
       <c r="G92" s="4"/>
       <c r="H92" s="4"/>
-      <c r="I92" s="9"/>
+      <c r="I92" s="6"/>
     </row>
     <row r="93" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F93" s="8"/>
+      <c r="F93" s="5"/>
       <c r="G93" s="4"/>
       <c r="H93" s="4"/>
-      <c r="I93" s="9"/>
+      <c r="I93" s="6"/>
     </row>
     <row r="94" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F94" s="8"/>
+      <c r="F94" s="5"/>
       <c r="G94" s="4"/>
       <c r="H94" s="4"/>
-      <c r="I94" s="9"/>
+      <c r="I94" s="6"/>
     </row>
     <row r="95" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F95" s="8"/>
+      <c r="F95" s="5"/>
       <c r="G95" s="4"/>
       <c r="H95" s="4"/>
-      <c r="I95" s="9"/>
+      <c r="I95" s="6"/>
     </row>
     <row r="96" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F96" s="8"/>
+      <c r="F96" s="5"/>
       <c r="G96" s="4"/>
       <c r="H96" s="4"/>
-      <c r="I96" s="9"/>
+      <c r="I96" s="6"/>
     </row>
     <row r="97" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F97" s="8"/>
+      <c r="F97" s="5"/>
       <c r="G97" s="4"/>
       <c r="H97" s="4"/>
-      <c r="I97" s="9"/>
+      <c r="I97" s="6"/>
     </row>
     <row r="98" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F98" s="8"/>
+      <c r="F98" s="5"/>
       <c r="G98" s="4"/>
       <c r="H98" s="4"/>
-      <c r="I98" s="9"/>
+      <c r="I98" s="6"/>
     </row>
     <row r="99" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F99" s="8"/>
+      <c r="F99" s="5"/>
       <c r="G99" s="4"/>
       <c r="H99" s="4"/>
-      <c r="I99" s="9"/>
+      <c r="I99" s="6"/>
     </row>
     <row r="100" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F100" s="8"/>
+      <c r="F100" s="5"/>
       <c r="G100" s="4"/>
       <c r="H100" s="4"/>
-      <c r="I100" s="9"/>
+      <c r="I100" s="6"/>
     </row>
     <row r="101" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F101" s="8"/>
+      <c r="F101" s="5"/>
       <c r="G101" s="4"/>
       <c r="H101" s="4"/>
-      <c r="I101" s="9"/>
+      <c r="I101" s="6"/>
     </row>
     <row r="102" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F102" s="8"/>
+      <c r="F102" s="5"/>
       <c r="G102" s="4"/>
       <c r="H102" s="4"/>
-      <c r="I102" s="9"/>
+      <c r="I102" s="6"/>
     </row>
     <row r="103" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F103" s="8"/>
+      <c r="F103" s="5"/>
       <c r="G103" s="4"/>
       <c r="H103" s="4"/>
-      <c r="I103" s="9"/>
+      <c r="I103" s="6"/>
     </row>
     <row r="104" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F104" s="8"/>
+      <c r="F104" s="5"/>
       <c r="G104" s="4"/>
       <c r="H104" s="4"/>
-      <c r="I104" s="9"/>
+      <c r="I104" s="6"/>
     </row>
     <row r="105" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F105" s="8"/>
+      <c r="F105" s="5"/>
       <c r="G105" s="4"/>
       <c r="H105" s="4"/>
-      <c r="I105" s="9"/>
+      <c r="I105" s="6"/>
     </row>
     <row r="106" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F106" s="8"/>
+      <c r="F106" s="5"/>
       <c r="G106" s="4"/>
       <c r="H106" s="4"/>
-      <c r="I106" s="9"/>
+      <c r="I106" s="6"/>
     </row>
     <row r="107" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F107" s="8"/>
+      <c r="F107" s="5"/>
       <c r="G107" s="4"/>
       <c r="H107" s="4"/>
-      <c r="I107" s="9"/>
+      <c r="I107" s="6"/>
     </row>
     <row r="108" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F108" s="8"/>
+      <c r="F108" s="5"/>
       <c r="G108" s="4"/>
       <c r="H108" s="4"/>
-      <c r="I108" s="9"/>
+      <c r="I108" s="6"/>
     </row>
     <row r="109" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F109" s="8"/>
+      <c r="F109" s="5"/>
       <c r="G109" s="4"/>
       <c r="H109" s="4"/>
-      <c r="I109" s="9"/>
+      <c r="I109" s="6"/>
     </row>
     <row r="110" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F110" s="8"/>
+      <c r="F110" s="5"/>
       <c r="G110" s="4"/>
       <c r="H110" s="4"/>
-      <c r="I110" s="9"/>
+      <c r="I110" s="6"/>
     </row>
     <row r="111" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F111" s="8"/>
+      <c r="F111" s="5"/>
       <c r="G111" s="4"/>
       <c r="H111" s="4"/>
-      <c r="I111" s="9"/>
+      <c r="I111" s="6"/>
     </row>
     <row r="112" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F112" s="8"/>
+      <c r="F112" s="5"/>
       <c r="G112" s="4"/>
       <c r="H112" s="4"/>
-      <c r="I112" s="9"/>
+      <c r="I112" s="6"/>
     </row>
     <row r="113" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F113" s="8"/>
+      <c r="F113" s="5"/>
       <c r="G113" s="4"/>
       <c r="H113" s="4"/>
-      <c r="I113" s="9"/>
+      <c r="I113" s="6"/>
     </row>
     <row r="114" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F114" s="8"/>
+      <c r="F114" s="5"/>
       <c r="G114" s="4"/>
       <c r="H114" s="4"/>
-      <c r="I114" s="9"/>
+      <c r="I114" s="6"/>
     </row>
     <row r="115" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F115" s="8"/>
+      <c r="F115" s="5"/>
       <c r="G115" s="4"/>
       <c r="H115" s="4"/>
-      <c r="I115" s="9"/>
+      <c r="I115" s="6"/>
     </row>
     <row r="116" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F116" s="8"/>
+      <c r="F116" s="5"/>
       <c r="G116" s="4"/>
       <c r="H116" s="4"/>
-      <c r="I116" s="9"/>
+      <c r="I116" s="6"/>
     </row>
     <row r="117" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F117" s="8"/>
+      <c r="F117" s="5"/>
       <c r="G117" s="4"/>
       <c r="H117" s="4"/>
-      <c r="I117" s="9"/>
+      <c r="I117" s="6"/>
     </row>
     <row r="118" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F118" s="8"/>
+      <c r="F118" s="5"/>
       <c r="G118" s="4"/>
       <c r="H118" s="4"/>
-      <c r="I118" s="9"/>
+      <c r="I118" s="6"/>
     </row>
     <row r="119" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F119" s="8"/>
+      <c r="F119" s="5"/>
       <c r="G119" s="4"/>
       <c r="H119" s="4"/>
-      <c r="I119" s="9"/>
+      <c r="I119" s="6"/>
     </row>
     <row r="120" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F120" s="8"/>
+      <c r="F120" s="5"/>
       <c r="G120" s="4"/>
       <c r="H120" s="4"/>
-      <c r="I120" s="9"/>
+      <c r="I120" s="6"/>
     </row>
     <row r="121" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F121" s="8"/>
+      <c r="F121" s="5"/>
       <c r="G121" s="4"/>
       <c r="H121" s="4"/>
-      <c r="I121" s="9"/>
+      <c r="I121" s="6"/>
     </row>
     <row r="122" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F122" s="8"/>
+      <c r="F122" s="5"/>
       <c r="G122" s="4"/>
       <c r="H122" s="4"/>
-      <c r="I122" s="9"/>
+      <c r="I122" s="6"/>
     </row>
     <row r="123" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F123" s="8"/>
+      <c r="F123" s="5"/>
       <c r="G123" s="4"/>
       <c r="H123" s="4"/>
-      <c r="I123" s="9"/>
+      <c r="I123" s="6"/>
     </row>
     <row r="124" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F124" s="8"/>
+      <c r="F124" s="5"/>
       <c r="G124" s="4"/>
       <c r="H124" s="4"/>
-      <c r="I124" s="9"/>
+      <c r="I124" s="6"/>
     </row>
     <row r="125" spans="6:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="F125" s="10"/>
-      <c r="G125" s="11"/>
-      <c r="H125" s="11"/>
-      <c r="I125" s="12"/>
+      <c r="F125" s="7"/>
+      <c r="G125" s="8"/>
+      <c r="H125" s="8"/>
+      <c r="I125" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\KampementKunja\KampementKunja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{54DD5163-63AD-4DEC-B9DE-0C4913D8F68D}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{121C6FF0-FDBD-4FF2-8D95-F5751A52E21F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{A6E5E93B-B35F-4E4B-A130-30A5E9571801}"/>
   </bookViews>
@@ -149,7 +149,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -160,6 +160,36 @@
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC00000"/>
+        <bgColor theme="4" tint="0.79998168889431442"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -349,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -388,19 +418,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -720,7 +759,7 @@
   <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+      <selection activeCell="H14" sqref="H14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -761,24 +800,24 @@
       <c r="H4" s="17" t="s">
         <v>9</v>
       </c>
-      <c r="I4" s="18" t="s">
+      <c r="I4" s="20" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F5" s="19" t="s">
+      <c r="F5" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G5" s="13"/>
       <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="20" t="s">
+      <c r="I5" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F6" s="21" t="s">
+      <c r="F6" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G6" s="12">
@@ -792,7 +831,7 @@
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F7" s="19" t="s">
+      <c r="F7" s="18" t="s">
         <v>5</v>
       </c>
       <c r="G7" s="14">
@@ -801,48 +840,48 @@
       <c r="H7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="20" t="s">
+      <c r="I7" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F8" s="21" t="s">
+      <c r="F8" s="19" t="s">
         <v>5</v>
       </c>
       <c r="G8" s="11"/>
       <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="22" t="s">
+      <c r="I8" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F9" s="19" t="s">
+      <c r="F9" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="20" t="s">
+      <c r="I9" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F10" s="21" t="s">
+      <c r="F10" s="19" t="s">
         <v>6</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="22" t="s">
+      <c r="I10" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F11" s="19" t="s">
+      <c r="F11" s="18" t="s">
         <v>6</v>
       </c>
       <c r="G11" s="14">
@@ -851,12 +890,12 @@
       <c r="H11" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I11" s="20" t="s">
+      <c r="I11" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F12" s="21" t="s">
+      <c r="F12" s="19" t="s">
         <v>6</v>
       </c>
       <c r="G12" s="12">
@@ -870,67 +909,69 @@
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F13" s="19" t="s">
+      <c r="F13" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G13" s="13"/>
+      <c r="G13" s="14">
+        <v>43363</v>
+      </c>
       <c r="H13" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="20" t="s">
-        <v>30</v>
+      <c r="I13" s="21" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F14" s="21" t="s">
+      <c r="F14" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="I14" s="22" t="s">
+      <c r="I14" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F15" s="19" t="s">
+      <c r="F15" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G15" s="13"/>
       <c r="H15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="20" t="s">
+      <c r="I15" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="F16" s="21" t="s">
+      <c r="F16" s="19" t="s">
         <v>7</v>
       </c>
       <c r="G16" s="11"/>
       <c r="H16" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="I16" s="22" t="s">
+      <c r="I16" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F17" s="19" t="s">
+      <c r="F17" s="18" t="s">
         <v>7</v>
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="I17" s="20" t="s">
+      <c r="I17" s="23" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F18" s="21" t="s">
+      <c r="F18" s="19" t="s">
         <v>8</v>
       </c>
       <c r="G18" s="12">
@@ -944,7 +985,7 @@
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F19" s="19" t="s">
+      <c r="F19" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G19" s="14">
@@ -953,43 +994,43 @@
       <c r="H19" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="I19" s="20" t="s">
+      <c r="I19" s="21" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F20" s="21" t="s">
+      <c r="F20" s="19" t="s">
         <v>8</v>
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="I20" s="22" t="s">
+      <c r="I20" s="24" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F21" s="19" t="s">
+      <c r="F21" s="18" t="s">
         <v>8</v>
       </c>
       <c r="G21" s="13"/>
       <c r="H21" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="I21" s="20" t="s">
-        <v>29</v>
+      <c r="I21" s="25" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F22" s="21" t="s">
+      <c r="F22" s="19" t="s">
         <v>8</v>
       </c>
       <c r="G22" s="11"/>
       <c r="H22" s="11" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="22" t="s">
+      <c r="I22" s="24" t="s">
         <v>29</v>
       </c>
     </row>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\KampementKunja\KampementKunja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{121C6FF0-FDBD-4FF2-8D95-F5751A52E21F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7358376F-516C-4625-A048-BF9D492E9DEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{A6E5E93B-B35F-4E4B-A130-30A5E9571801}"/>
   </bookViews>
@@ -759,7 +759,7 @@
   <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H14" sqref="H14"/>
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\KampementKunja\KampementKunja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{7358376F-516C-4625-A048-BF9D492E9DEF}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{59CC8FC6-C408-4178-ADC7-565633E9D3C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{A6E5E93B-B35F-4E4B-A130-30A5E9571801}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
   <si>
     <t>Naam</t>
   </si>
@@ -90,9 +90,6 @@
     <t>Manager controller</t>
   </si>
   <si>
-    <t>Boeken index layout</t>
-  </si>
-  <si>
     <t>Navbar layout</t>
   </si>
   <si>
@@ -117,7 +114,13 @@
     <t>Nee</t>
   </si>
   <si>
-    <t>Bijna</t>
+    <t>ja</t>
+  </si>
+  <si>
+    <t>Boeken index layout+persoonsgegevens wijzigen+boeken annuleren</t>
+  </si>
+  <si>
+    <t>wijzigen+boeken annuleren</t>
   </si>
 </sst>
 </file>
@@ -149,7 +152,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -186,12 +189,6 @@
         <bgColor theme="4" tint="0.79998168889431442"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="13">
     <border>
@@ -379,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -439,7 +436,13 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -759,7 +762,7 @@
   <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -801,7 +804,7 @@
         <v>9</v>
       </c>
       <c r="I4" s="20" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
@@ -812,8 +815,8 @@
       <c r="H5" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="I5" s="23" t="s">
-        <v>29</v>
+      <c r="I5" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
@@ -827,7 +830,7 @@
         <v>11</v>
       </c>
       <c r="I6" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
@@ -841,7 +844,7 @@
         <v>12</v>
       </c>
       <c r="I7" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
@@ -852,8 +855,8 @@
       <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="I8" s="24" t="s">
-        <v>29</v>
+      <c r="I8" s="22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
@@ -865,19 +868,21 @@
         <v>14</v>
       </c>
       <c r="I9" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F10" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="G10" s="11"/>
+      <c r="G10" s="12">
+        <v>43368</v>
+      </c>
       <c r="H10" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="I10" s="24" t="s">
-        <v>29</v>
+      <c r="I10" s="22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
@@ -891,7 +896,7 @@
         <v>16</v>
       </c>
       <c r="I11" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
@@ -905,7 +910,7 @@
         <v>17</v>
       </c>
       <c r="I12" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
@@ -919,7 +924,7 @@
         <v>18</v>
       </c>
       <c r="I13" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
@@ -931,7 +936,7 @@
         <v>19</v>
       </c>
       <c r="I14" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
@@ -943,19 +948,21 @@
         <v>20</v>
       </c>
       <c r="I15" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="F16" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="11"/>
+      <c r="G16" s="12">
+        <v>43368</v>
+      </c>
       <c r="H16" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="I16" s="24" t="s">
-        <v>29</v>
+        <v>30</v>
+      </c>
+      <c r="I16" s="22" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="6:9" x14ac:dyDescent="0.25">
@@ -964,10 +971,10 @@
       </c>
       <c r="G17" s="13"/>
       <c r="H17" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="I17" s="23" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="6:9" x14ac:dyDescent="0.25">
@@ -978,10 +985,10 @@
         <v>43363</v>
       </c>
       <c r="H18" s="11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I18" s="22" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19" spans="6:9" x14ac:dyDescent="0.25">
@@ -992,10 +999,10 @@
         <v>43363</v>
       </c>
       <c r="H19" s="13" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I19" s="21" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20" spans="6:9" x14ac:dyDescent="0.25">
@@ -1004,41 +1011,51 @@
       </c>
       <c r="G20" s="11"/>
       <c r="H20" s="11" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I20" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="21" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F21" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="G21" s="13"/>
+      <c r="G21" s="14">
+        <v>43368</v>
+      </c>
       <c r="H21" s="13" t="s">
-        <v>26</v>
-      </c>
-      <c r="I21" s="25" t="s">
-        <v>30</v>
+        <v>25</v>
+      </c>
+      <c r="I21" s="21" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="22" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F22" s="19" t="s">
         <v>8</v>
       </c>
-      <c r="G22" s="11"/>
+      <c r="G22" s="12">
+        <v>43367</v>
+      </c>
       <c r="H22" s="11" t="s">
+        <v>26</v>
+      </c>
+      <c r="I22" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="I22" s="24" t="s">
-        <v>29</v>
-      </c>
     </row>
     <row r="23" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F23" s="5"/>
-      <c r="G23" s="4"/>
-      <c r="H23" s="4"/>
-      <c r="I23" s="6"/>
+      <c r="F23" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="27" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F24" s="5"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\KampementKunja\KampementKunja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{59CC8FC6-C408-4178-ADC7-565633E9D3C2}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0779B86C-707A-4C9F-9029-759F6C98381C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{A6E5E93B-B35F-4E4B-A130-30A5E9571801}"/>
   </bookViews>
@@ -376,7 +376,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -442,7 +442,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -762,7 +765,7 @@
   <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -851,7 +854,9 @@
       <c r="F8" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="11"/>
+      <c r="G8" s="12">
+        <v>43368</v>
+      </c>
       <c r="H8" s="11" t="s">
         <v>13</v>
       </c>
@@ -1049,12 +1054,14 @@
       <c r="F23" s="25" t="s">
         <v>5</v>
       </c>
-      <c r="G23" s="26"/>
+      <c r="G23" s="28">
+        <v>43372</v>
+      </c>
       <c r="H23" s="26" t="s">
         <v>31</v>
       </c>
       <c r="I23" s="27" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.25">

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\KampementKunja\KampementKunja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{0779B86C-707A-4C9F-9029-759F6C98381C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{72033333-860C-439E-8C6D-EAE055C7CDBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{A6E5E93B-B35F-4E4B-A130-30A5E9571801}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="33">
   <si>
     <t>Naam</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>wijzigen+boeken annuleren</t>
+  </si>
+  <si>
+    <t>Maken Testplan</t>
   </si>
 </sst>
 </file>
@@ -376,7 +379,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -446,6 +449,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -765,7 +771,7 @@
   <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -952,8 +958,8 @@
       <c r="H15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="I15" s="23" t="s">
-        <v>28</v>
+      <c r="I15" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
@@ -1065,10 +1071,16 @@
       </c>
     </row>
     <row r="24" spans="6:9" x14ac:dyDescent="0.25">
-      <c r="F24" s="5"/>
-      <c r="G24" s="4"/>
-      <c r="H24" s="4"/>
-      <c r="I24" s="6"/>
+      <c r="F24" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="29" t="s">
+        <v>28</v>
+      </c>
     </row>
     <row r="25" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F25" s="5"/>

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\KampementKunja\KampementKunja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{72033333-860C-439E-8C6D-EAE055C7CDBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B36ED969-1537-46F3-BD4C-FBB792599A6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{A6E5E93B-B35F-4E4B-A130-30A5E9571801}"/>
   </bookViews>
@@ -771,7 +771,7 @@
   <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H34" sqref="H34"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,12 +874,14 @@
       <c r="F9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="13"/>
+      <c r="G9" s="14">
+        <v>43371</v>
+      </c>
       <c r="H9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="23" t="s">
-        <v>28</v>
+      <c r="I9" s="21" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">

--- a/Logboek.xlsx
+++ b/Logboek.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mathi\Documents\GitHub\KampementKunja\KampementKunja\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{B36ED969-1537-46F3-BD4C-FBB792599A6E}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{72033333-860C-439E-8C6D-EAE055C7CDBE}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12375" xr2:uid="{A6E5E93B-B35F-4E4B-A130-30A5E9571801}"/>
   </bookViews>
@@ -771,7 +771,7 @@
   <dimension ref="B1:I125"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="H34" sqref="H34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -874,14 +874,12 @@
       <c r="F9" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="14">
-        <v>43371</v>
-      </c>
+      <c r="G9" s="13"/>
       <c r="H9" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I9" s="21" t="s">
-        <v>27</v>
+      <c r="I9" s="23" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
